--- a/form-files/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
+++ b/form-files/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1910" yWindow="6350" windowWidth="11200" windowHeight="5240"/>
+    <workbookView xWindow="1920" yWindow="6360" windowWidth="48940" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,17 @@
     <sheet name="choices" sheetId="3" r:id="rId3"/>
     <sheet name="settings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -305,6 +310,9 @@
   </si>
   <si>
     <t>columns_2</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
   </si>
 </sst>
 </file>
@@ -664,33 +672,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U106"/>
+  <dimension ref="B1:V106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="40.90625" customWidth="1"/>
-    <col min="5" max="6" width="17.26953125" customWidth="1"/>
-    <col min="7" max="8" width="27.08984375" customWidth="1"/>
-    <col min="9" max="9" width="24.90625" customWidth="1"/>
-    <col min="10" max="10" width="41.90625" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
+    <col min="5" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="10" max="10" width="41.83203125" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" customWidth="1"/>
-    <col min="13" max="13" width="20.54296875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.90625" customWidth="1"/>
-    <col min="16" max="16" width="18.36328125" customWidth="1"/>
-    <col min="17" max="17" width="18.453125" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
     <col min="21" max="21" width="27" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="17.5" customHeight="1">
       <c r="B1" t="s">
         <v>83</v>
       </c>
@@ -751,14 +760,17 @@
       <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" ht="17.5" customHeight="1">
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="17.5" customHeight="1">
       <c r="F3">
         <v>1</v>
       </c>
@@ -775,7 +787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" ht="17.5" customHeight="1">
       <c r="C4" t="s">
         <v>84</v>
       </c>
@@ -789,7 +801,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="17.5" customHeight="1">
       <c r="F5">
         <v>2</v>
       </c>
@@ -805,11 +817,8 @@
       <c r="J5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:22" ht="17.5" customHeight="1">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -821,13 +830,13 @@
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" ht="17.5" customHeight="1">
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" ht="17.5" customHeight="1">
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
@@ -837,7 +846,7 @@
       <c r="H8" s="1"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" ht="17.5" customHeight="1">
       <c r="F9">
         <v>1</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="J9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="17.5" customHeight="1">
       <c r="F10">
         <v>2</v>
       </c>
@@ -873,7 +885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="17.5" customHeight="1">
       <c r="F11">
         <v>1</v>
       </c>
@@ -890,7 +902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="17.5" customHeight="1">
       <c r="F12">
         <v>2</v>
       </c>
@@ -905,14 +917,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" ht="17.5" customHeight="1">
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" ht="17.5" customHeight="1">
       <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
@@ -939,100 +951,105 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:22" ht="17.5" customHeight="1"/>
+    <row r="16" spans="2:22" ht="17.5" customHeight="1"/>
+    <row r="17" ht="17.5" customHeight="1"/>
+    <row r="18" ht="17.5" customHeight="1"/>
+    <row r="19" ht="17.5" customHeight="1"/>
+    <row r="20" ht="17.5" customHeight="1"/>
+    <row r="21" ht="17.5" customHeight="1"/>
+    <row r="22" ht="17.5" customHeight="1"/>
+    <row r="23" ht="17.5" customHeight="1"/>
+    <row r="24" ht="17.5" customHeight="1"/>
+    <row r="25" ht="17.5" customHeight="1"/>
+    <row r="26" ht="17.5" customHeight="1"/>
+    <row r="27" ht="17.5" customHeight="1"/>
+    <row r="28" ht="17.5" customHeight="1"/>
+    <row r="29" ht="17.5" customHeight="1"/>
+    <row r="30" ht="17.5" customHeight="1"/>
+    <row r="31" ht="17.5" customHeight="1"/>
+    <row r="32" ht="17.5" customHeight="1"/>
+    <row r="33" ht="17.5" customHeight="1"/>
+    <row r="34" ht="17.5" customHeight="1"/>
+    <row r="35" ht="17.5" customHeight="1"/>
+    <row r="36" ht="17.5" customHeight="1"/>
+    <row r="37" ht="17.5" customHeight="1"/>
+    <row r="38" ht="17.5" customHeight="1"/>
+    <row r="39" ht="17.5" customHeight="1"/>
+    <row r="40" ht="17.5" customHeight="1"/>
+    <row r="41" ht="17.5" customHeight="1"/>
+    <row r="42" ht="17.5" customHeight="1"/>
+    <row r="43" ht="17.5" customHeight="1"/>
+    <row r="44" ht="17.5" customHeight="1"/>
+    <row r="45" ht="17.5" customHeight="1"/>
+    <row r="46" ht="17.5" customHeight="1"/>
+    <row r="47" ht="17.5" customHeight="1"/>
+    <row r="48" ht="17.5" customHeight="1"/>
+    <row r="49" ht="17.5" customHeight="1"/>
+    <row r="50" ht="17.5" customHeight="1"/>
+    <row r="51" ht="17.5" customHeight="1"/>
+    <row r="52" ht="17.5" customHeight="1"/>
+    <row r="53" ht="17.5" customHeight="1"/>
+    <row r="54" ht="17.5" customHeight="1"/>
+    <row r="55" ht="17.5" customHeight="1"/>
+    <row r="56" ht="17.5" customHeight="1"/>
+    <row r="57" ht="17.5" customHeight="1"/>
+    <row r="58" ht="17.5" customHeight="1"/>
+    <row r="59" ht="17.5" customHeight="1"/>
+    <row r="60" ht="17.5" customHeight="1"/>
+    <row r="61" ht="17.5" customHeight="1"/>
+    <row r="62" ht="17.5" customHeight="1"/>
+    <row r="63" ht="17.5" customHeight="1"/>
+    <row r="64" ht="17.5" customHeight="1"/>
+    <row r="65" ht="17.5" customHeight="1"/>
+    <row r="66" ht="17.5" customHeight="1"/>
+    <row r="67" ht="17.5" customHeight="1"/>
+    <row r="68" ht="17.5" customHeight="1"/>
+    <row r="69" ht="17.5" customHeight="1"/>
+    <row r="70" ht="17.5" customHeight="1"/>
+    <row r="71" ht="17.5" customHeight="1"/>
+    <row r="72" ht="17.5" customHeight="1"/>
+    <row r="73" ht="17.5" customHeight="1"/>
+    <row r="74" ht="17.5" customHeight="1"/>
+    <row r="75" ht="17.5" customHeight="1"/>
+    <row r="76" ht="17.5" customHeight="1"/>
+    <row r="77" ht="17.5" customHeight="1"/>
+    <row r="78" ht="17.5" customHeight="1"/>
+    <row r="79" ht="17.5" customHeight="1"/>
+    <row r="80" ht="17.5" customHeight="1"/>
+    <row r="81" ht="17.5" customHeight="1"/>
+    <row r="82" ht="17.5" customHeight="1"/>
+    <row r="83" ht="17.5" customHeight="1"/>
+    <row r="84" ht="17.5" customHeight="1"/>
+    <row r="85" ht="17.5" customHeight="1"/>
+    <row r="86" ht="17.5" customHeight="1"/>
+    <row r="87" ht="17.5" customHeight="1"/>
+    <row r="88" ht="17.5" customHeight="1"/>
+    <row r="89" ht="17.5" customHeight="1"/>
+    <row r="90" ht="17.5" customHeight="1"/>
+    <row r="91" ht="17.5" customHeight="1"/>
+    <row r="92" ht="17.5" customHeight="1"/>
+    <row r="93" ht="17.5" customHeight="1"/>
+    <row r="94" ht="17.5" customHeight="1"/>
+    <row r="95" ht="17.5" customHeight="1"/>
+    <row r="96" ht="17.5" customHeight="1"/>
+    <row r="97" ht="17.5" customHeight="1"/>
+    <row r="98" ht="17.5" customHeight="1"/>
+    <row r="99" ht="17.5" customHeight="1"/>
+    <row r="100" ht="17.5" customHeight="1"/>
+    <row r="101" ht="17.5" customHeight="1"/>
+    <row r="102" ht="17.5" customHeight="1"/>
+    <row r="103" ht="17.5" customHeight="1"/>
+    <row r="104" ht="17.5" customHeight="1"/>
+    <row r="105" ht="17.5" customHeight="1"/>
+    <row r="106" ht="17.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1044,13 +1061,13 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>78</v>
       </c>
@@ -1058,7 +1075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1068,6 +1085,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1079,14 +1101,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.5" customHeight="1">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1097,7 +1119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1108,7 +1130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="17.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1119,7 +1141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1130,7 +1152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1141,7 +1163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1152,7 +1174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1163,7 +1185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1174,7 +1196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1185,7 +1207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="17.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1196,8 +1218,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="17.5" customHeight="1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1208,7 +1230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17.5" customHeight="1">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1219,7 +1241,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="17.5" customHeight="1">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17.5" customHeight="1">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1241,7 +1263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="17.5" customHeight="1">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="17.5" customHeight="1">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="17.5" customHeight="1">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1274,7 +1296,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="17.5" customHeight="1">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1285,7 +1307,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="17.5" customHeight="1">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1296,7 +1318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="17.5" customHeight="1">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1307,8 +1329,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="23" spans="1:3" ht="17.5" customHeight="1">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1319,7 +1341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="17.5" customHeight="1">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1330,10 +1352,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="26" spans="1:3" ht="17.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1345,14 +1372,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
@@ -1363,7 +1390,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -1371,7 +1398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -1379,7 +1406,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>87</v>
       </c>
@@ -1387,10 +1414,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="14.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/form-files/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
+++ b/form-files/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="6360" windowWidth="48940" windowHeight="16320"/>
+    <workbookView xWindow="1920" yWindow="6360" windowWidth="25820" windowHeight="16220"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -33,9 +33,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>templatePath</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>assign</t>
   </si>
 </sst>
 </file>
@@ -672,127 +672,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V106"/>
+  <dimension ref="B1:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" customWidth="1"/>
-    <col min="5" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="8" width="27.1640625" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" customWidth="1"/>
-    <col min="10" max="10" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="40.81640625" customWidth="1"/>
+    <col min="5" max="6" width="17.36328125" customWidth="1"/>
+    <col min="7" max="8" width="27.1796875" customWidth="1"/>
+    <col min="9" max="9" width="24.81640625" customWidth="1"/>
+    <col min="10" max="10" width="41.81640625" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" customWidth="1"/>
+    <col min="16" max="16" width="18.36328125" customWidth="1"/>
+    <col min="17" max="17" width="18.453125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
     <col min="21" max="21" width="27" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" customWidth="1"/>
+    <col min="22" max="22" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="17.5" customHeight="1">
+    <row r="1" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="V1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="2:22" ht="17.5" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:22" ht="17.5" customHeight="1">
+    <row r="3" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="4" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="17.5" customHeight="1">
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -801,26 +801,26 @@
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:22" ht="17.5" customHeight="1">
+    <row r="5" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="17.5" customHeight="1">
+    </row>
+    <row r="6" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -830,219 +830,230 @@
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:22" ht="17.5" customHeight="1">
+    <row r="7" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:22" ht="17.5" customHeight="1">
+    <row r="8" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:22" ht="17.5" customHeight="1">
+    <row r="9" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="17.5" customHeight="1">
+    <row r="10" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" t="s">
         <v>26</v>
       </c>
-      <c r="K10" t="s">
+      <c r="S10" t="s">
         <v>27</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>28</v>
       </c>
-      <c r="T10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="17.5" customHeight="1">
+    </row>
+    <row r="11" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="17.5" customHeight="1">
+    </row>
+    <row r="12" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="17.5" customHeight="1">
+    </row>
+    <row r="13" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:22" ht="17.5" customHeight="1">
-      <c r="G14" s="1" t="s">
-        <v>15</v>
+    <row r="14" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="G14" t="s">
+        <v>96</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="2"/>
       <c r="L14">
         <v>5</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="1">
+    </row>
+    <row r="15" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="1">
         <v>1</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R15" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="17.5" customHeight="1"/>
-    <row r="16" spans="2:22" ht="17.5" customHeight="1"/>
-    <row r="17" ht="17.5" customHeight="1"/>
-    <row r="18" ht="17.5" customHeight="1"/>
-    <row r="19" ht="17.5" customHeight="1"/>
-    <row r="20" ht="17.5" customHeight="1"/>
-    <row r="21" ht="17.5" customHeight="1"/>
-    <row r="22" ht="17.5" customHeight="1"/>
-    <row r="23" ht="17.5" customHeight="1"/>
-    <row r="24" ht="17.5" customHeight="1"/>
-    <row r="25" ht="17.5" customHeight="1"/>
-    <row r="26" ht="17.5" customHeight="1"/>
-    <row r="27" ht="17.5" customHeight="1"/>
-    <row r="28" ht="17.5" customHeight="1"/>
-    <row r="29" ht="17.5" customHeight="1"/>
-    <row r="30" ht="17.5" customHeight="1"/>
-    <row r="31" ht="17.5" customHeight="1"/>
-    <row r="32" ht="17.5" customHeight="1"/>
-    <row r="33" ht="17.5" customHeight="1"/>
-    <row r="34" ht="17.5" customHeight="1"/>
-    <row r="35" ht="17.5" customHeight="1"/>
-    <row r="36" ht="17.5" customHeight="1"/>
-    <row r="37" ht="17.5" customHeight="1"/>
-    <row r="38" ht="17.5" customHeight="1"/>
-    <row r="39" ht="17.5" customHeight="1"/>
-    <row r="40" ht="17.5" customHeight="1"/>
-    <row r="41" ht="17.5" customHeight="1"/>
-    <row r="42" ht="17.5" customHeight="1"/>
-    <row r="43" ht="17.5" customHeight="1"/>
-    <row r="44" ht="17.5" customHeight="1"/>
-    <row r="45" ht="17.5" customHeight="1"/>
-    <row r="46" ht="17.5" customHeight="1"/>
-    <row r="47" ht="17.5" customHeight="1"/>
-    <row r="48" ht="17.5" customHeight="1"/>
-    <row r="49" ht="17.5" customHeight="1"/>
-    <row r="50" ht="17.5" customHeight="1"/>
-    <row r="51" ht="17.5" customHeight="1"/>
-    <row r="52" ht="17.5" customHeight="1"/>
-    <row r="53" ht="17.5" customHeight="1"/>
-    <row r="54" ht="17.5" customHeight="1"/>
-    <row r="55" ht="17.5" customHeight="1"/>
-    <row r="56" ht="17.5" customHeight="1"/>
-    <row r="57" ht="17.5" customHeight="1"/>
-    <row r="58" ht="17.5" customHeight="1"/>
-    <row r="59" ht="17.5" customHeight="1"/>
-    <row r="60" ht="17.5" customHeight="1"/>
-    <row r="61" ht="17.5" customHeight="1"/>
-    <row r="62" ht="17.5" customHeight="1"/>
-    <row r="63" ht="17.5" customHeight="1"/>
-    <row r="64" ht="17.5" customHeight="1"/>
-    <row r="65" ht="17.5" customHeight="1"/>
-    <row r="66" ht="17.5" customHeight="1"/>
-    <row r="67" ht="17.5" customHeight="1"/>
-    <row r="68" ht="17.5" customHeight="1"/>
-    <row r="69" ht="17.5" customHeight="1"/>
-    <row r="70" ht="17.5" customHeight="1"/>
-    <row r="71" ht="17.5" customHeight="1"/>
-    <row r="72" ht="17.5" customHeight="1"/>
-    <row r="73" ht="17.5" customHeight="1"/>
-    <row r="74" ht="17.5" customHeight="1"/>
-    <row r="75" ht="17.5" customHeight="1"/>
-    <row r="76" ht="17.5" customHeight="1"/>
-    <row r="77" ht="17.5" customHeight="1"/>
-    <row r="78" ht="17.5" customHeight="1"/>
-    <row r="79" ht="17.5" customHeight="1"/>
-    <row r="80" ht="17.5" customHeight="1"/>
-    <row r="81" ht="17.5" customHeight="1"/>
-    <row r="82" ht="17.5" customHeight="1"/>
-    <row r="83" ht="17.5" customHeight="1"/>
-    <row r="84" ht="17.5" customHeight="1"/>
-    <row r="85" ht="17.5" customHeight="1"/>
-    <row r="86" ht="17.5" customHeight="1"/>
-    <row r="87" ht="17.5" customHeight="1"/>
-    <row r="88" ht="17.5" customHeight="1"/>
-    <row r="89" ht="17.5" customHeight="1"/>
-    <row r="90" ht="17.5" customHeight="1"/>
-    <row r="91" ht="17.5" customHeight="1"/>
-    <row r="92" ht="17.5" customHeight="1"/>
-    <row r="93" ht="17.5" customHeight="1"/>
-    <row r="94" ht="17.5" customHeight="1"/>
-    <row r="95" ht="17.5" customHeight="1"/>
-    <row r="96" ht="17.5" customHeight="1"/>
-    <row r="97" ht="17.5" customHeight="1"/>
-    <row r="98" ht="17.5" customHeight="1"/>
-    <row r="99" ht="17.5" customHeight="1"/>
-    <row r="100" ht="17.5" customHeight="1"/>
-    <row r="101" ht="17.5" customHeight="1"/>
-    <row r="102" ht="17.5" customHeight="1"/>
-    <row r="103" ht="17.5" customHeight="1"/>
-    <row r="104" ht="17.5" customHeight="1"/>
-    <row r="105" ht="17.5" customHeight="1"/>
-    <row r="106" ht="17.5" customHeight="1"/>
+    <row r="16" spans="2:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1061,26 +1072,26 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5" customHeight="1">
+    <row r="1" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1101,259 +1112,259 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" customHeight="1">
+    <row r="1" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
       <c r="C1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.5" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="18" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="23" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="26" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="25" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1372,51 +1383,51 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" customHeight="1">
+    <row r="1" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" customHeight="1">
+    <row r="4" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="14.5" customHeight="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
